--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Il13-Il4ra.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Il13-Il4ra.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,6 +79,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
     <t>Il13</t>
   </si>
   <si>
@@ -89,9 +92,6 @@
   </si>
   <si>
     <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
   </si>
   <si>
     <t>Neutrophils</t>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,13 +528,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -549,10 +549,10 @@
         <v>0.352247</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.6540874079906115</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.7393359457808691</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>25.554145</v>
+        <v>46.9028855</v>
       </c>
       <c r="N2">
-        <v>51.10829</v>
+        <v>93.80577099999999</v>
       </c>
       <c r="O2">
-        <v>0.1379477310300175</v>
+        <v>0.2248968021537497</v>
       </c>
       <c r="P2">
-        <v>0.09797016207862534</v>
+        <v>0.1641136908932902</v>
       </c>
       <c r="Q2">
-        <v>3.000456971271666</v>
+        <v>5.507133569572832</v>
       </c>
       <c r="R2">
-        <v>18.00274182763</v>
+        <v>33.042801417437</v>
       </c>
       <c r="S2">
-        <v>0.1379477310300175</v>
+        <v>0.1471021663861235</v>
       </c>
       <c r="T2">
-        <v>0.09797016207862534</v>
+        <v>0.1213351508721799</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,10 +590,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D3" t="s">
         <v>20</v>
@@ -611,10 +611,10 @@
         <v>0.352247</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.6540874079906115</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.7393359457808691</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,10 +629,10 @@
         <v>95.50396499999999</v>
       </c>
       <c r="O3">
-        <v>0.1718515107969138</v>
+        <v>0.1526454509321794</v>
       </c>
       <c r="P3">
-        <v>0.183072823023454</v>
+        <v>0.1670846902488932</v>
       </c>
       <c r="Q3">
         <v>3.737887239928332</v>
@@ -641,10 +641,10 @@
         <v>33.640985159355</v>
       </c>
       <c r="S3">
-        <v>0.1718515107969138</v>
+        <v>0.09984346734178731</v>
       </c>
       <c r="T3">
-        <v>0.183072823023454</v>
+        <v>0.123531717490669</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,13 +652,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -673,10 +673,10 @@
         <v>0.352247</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0.6540874079906115</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0.7393359457808691</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>48.960351</v>
+        <v>40.94164133333334</v>
       </c>
       <c r="N4">
-        <v>146.881053</v>
+        <v>122.824924</v>
       </c>
       <c r="O4">
-        <v>0.2643003446557592</v>
+        <v>0.1963129584168644</v>
       </c>
       <c r="P4">
-        <v>0.2815582475698005</v>
+        <v>0.214882852051052</v>
       </c>
       <c r="Q4">
-        <v>5.748712252899</v>
+        <v>4.807190111580889</v>
       </c>
       <c r="R4">
-        <v>51.738410276091</v>
+        <v>43.264711004228</v>
       </c>
       <c r="S4">
-        <v>0.2643003446557592</v>
+        <v>0.1284058341258555</v>
       </c>
       <c r="T4">
-        <v>0.2815582475698005</v>
+        <v>0.1588706166532551</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,13 +714,13 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" t="s">
         <v>21</v>
-      </c>
-      <c r="C5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" t="s">
-        <v>25</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -735,10 +735,10 @@
         <v>0.352247</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>0.6540874079906115</v>
       </c>
       <c r="J5">
-        <v>1</v>
+        <v>0.7393359457808691</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>8.509240999999999</v>
+        <v>7.165723</v>
       </c>
       <c r="N5">
-        <v>17.018482</v>
+        <v>14.331446</v>
       </c>
       <c r="O5">
-        <v>0.04593503279947721</v>
+        <v>0.03435925467356532</v>
       </c>
       <c r="P5">
-        <v>0.03262295490364025</v>
+        <v>0.02507294033005582</v>
       </c>
       <c r="Q5">
-        <v>0.9991182048423332</v>
+        <v>0.8413681431936666</v>
       </c>
       <c r="R5">
-        <v>5.994709229053999</v>
+        <v>5.048208859161999</v>
       </c>
       <c r="S5">
-        <v>0.04593503279947721</v>
+        <v>0.02247395582992165</v>
       </c>
       <c r="T5">
-        <v>0.03262295490364025</v>
+        <v>0.01853732605242912</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,10 +776,10 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D6" t="s">
         <v>26</v>
@@ -797,10 +797,10 @@
         <v>0.352247</v>
       </c>
       <c r="I6">
-        <v>1</v>
+        <v>0.6540874079906115</v>
       </c>
       <c r="J6">
-        <v>1</v>
+        <v>0.7393359457808691</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>29.87274933333333</v>
+        <v>49.85523499999999</v>
       </c>
       <c r="N6">
-        <v>89.61824799999999</v>
+        <v>149.565705</v>
       </c>
       <c r="O6">
-        <v>0.1612606483277683</v>
+        <v>0.2390531585124693</v>
       </c>
       <c r="P6">
-        <v>0.1717904136836204</v>
+        <v>0.2616659893836066</v>
       </c>
       <c r="Q6">
-        <v>3.507528778139555</v>
+        <v>5.853785654348332</v>
       </c>
       <c r="R6">
-        <v>31.567759003256</v>
+        <v>52.68407088913499</v>
       </c>
       <c r="S6">
-        <v>0.1612606483277683</v>
+        <v>0.1563616608233898</v>
       </c>
       <c r="T6">
-        <v>0.1717904136836204</v>
+        <v>0.1934590717396156</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,10 +838,10 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D7" t="s">
         <v>27</v>
@@ -859,10 +859,10 @@
         <v>0.352247</v>
       </c>
       <c r="I7">
-        <v>1</v>
+        <v>0.6540874079906115</v>
       </c>
       <c r="J7">
-        <v>1</v>
+        <v>0.7393359457808691</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,400 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>40.513986</v>
+        <v>31.85278333333333</v>
       </c>
       <c r="N7">
-        <v>121.541958</v>
+        <v>95.55834999999999</v>
       </c>
       <c r="O7">
-        <v>0.218704732390064</v>
+        <v>0.1527323753111719</v>
       </c>
       <c r="P7">
-        <v>0.2329853987408594</v>
+        <v>0.1671798370931021</v>
       </c>
       <c r="Q7">
-        <v>4.756976675513999</v>
+        <v>3.740015790272222</v>
       </c>
       <c r="R7">
-        <v>42.812790079626</v>
+        <v>33.66014211245</v>
       </c>
       <c r="S7">
-        <v>0.218704732390064</v>
+        <v>0.09990032348353371</v>
       </c>
       <c r="T7">
-        <v>0.2329853987408594</v>
+        <v>0.1236020629727203</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>0.5</v>
+      </c>
+      <c r="G8">
+        <v>0.062095</v>
+      </c>
+      <c r="H8">
+        <v>0.12419</v>
+      </c>
+      <c r="I8">
+        <v>0.3459125920093885</v>
+      </c>
+      <c r="J8">
+        <v>0.2606640542191307</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>46.9028855</v>
+      </c>
+      <c r="N8">
+        <v>93.80577099999999</v>
+      </c>
+      <c r="O8">
+        <v>0.2248968021537497</v>
+      </c>
+      <c r="P8">
+        <v>0.1641136908932902</v>
+      </c>
+      <c r="Q8">
+        <v>2.9124346751225</v>
+      </c>
+      <c r="R8">
+        <v>11.64973870049</v>
+      </c>
+      <c r="S8">
+        <v>0.0777946357676262</v>
+      </c>
+      <c r="T8">
+        <v>0.04277854002111027</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>0.5</v>
+      </c>
+      <c r="G9">
+        <v>0.062095</v>
+      </c>
+      <c r="H9">
+        <v>0.12419</v>
+      </c>
+      <c r="I9">
+        <v>0.3459125920093885</v>
+      </c>
+      <c r="J9">
+        <v>0.2606640542191307</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>31.834655</v>
+      </c>
+      <c r="N9">
+        <v>95.50396499999999</v>
+      </c>
+      <c r="O9">
+        <v>0.1526454509321794</v>
+      </c>
+      <c r="P9">
+        <v>0.1670846902488932</v>
+      </c>
+      <c r="Q9">
+        <v>1.976772902225</v>
+      </c>
+      <c r="R9">
+        <v>11.86063741335</v>
+      </c>
+      <c r="S9">
+        <v>0.05280198359039211</v>
+      </c>
+      <c r="T9">
+        <v>0.04355297275822417</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>0.5</v>
+      </c>
+      <c r="G10">
+        <v>0.062095</v>
+      </c>
+      <c r="H10">
+        <v>0.12419</v>
+      </c>
+      <c r="I10">
+        <v>0.3459125920093885</v>
+      </c>
+      <c r="J10">
+        <v>0.2606640542191307</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>40.94164133333334</v>
+      </c>
+      <c r="N10">
+        <v>122.824924</v>
+      </c>
+      <c r="O10">
+        <v>0.1963129584168644</v>
+      </c>
+      <c r="P10">
+        <v>0.214882852051052</v>
+      </c>
+      <c r="Q10">
+        <v>2.542271218593334</v>
+      </c>
+      <c r="R10">
+        <v>15.25362731156</v>
+      </c>
+      <c r="S10">
+        <v>0.06790712429100887</v>
+      </c>
+      <c r="T10">
+        <v>0.05601223539779688</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>0.5</v>
+      </c>
+      <c r="G11">
+        <v>0.062095</v>
+      </c>
+      <c r="H11">
+        <v>0.12419</v>
+      </c>
+      <c r="I11">
+        <v>0.3459125920093885</v>
+      </c>
+      <c r="J11">
+        <v>0.2606640542191307</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>7.165723</v>
+      </c>
+      <c r="N11">
+        <v>14.331446</v>
+      </c>
+      <c r="O11">
+        <v>0.03435925467356532</v>
+      </c>
+      <c r="P11">
+        <v>0.02507294033005582</v>
+      </c>
+      <c r="Q11">
+        <v>0.444955569685</v>
+      </c>
+      <c r="R11">
+        <v>1.77982227874</v>
+      </c>
+      <c r="S11">
+        <v>0.01188529884364368</v>
+      </c>
+      <c r="T11">
+        <v>0.006535614277626701</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0.5</v>
+      </c>
+      <c r="G12">
+        <v>0.062095</v>
+      </c>
+      <c r="H12">
+        <v>0.12419</v>
+      </c>
+      <c r="I12">
+        <v>0.3459125920093885</v>
+      </c>
+      <c r="J12">
+        <v>0.2606640542191307</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>49.85523499999999</v>
+      </c>
+      <c r="N12">
+        <v>149.565705</v>
+      </c>
+      <c r="O12">
+        <v>0.2390531585124693</v>
+      </c>
+      <c r="P12">
+        <v>0.2616659893836066</v>
+      </c>
+      <c r="Q12">
+        <v>3.095760817325</v>
+      </c>
+      <c r="R12">
+        <v>18.57456490395</v>
+      </c>
+      <c r="S12">
+        <v>0.08269149768907949</v>
+      </c>
+      <c r="T12">
+        <v>0.06820691764399092</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.5</v>
+      </c>
+      <c r="G13">
+        <v>0.062095</v>
+      </c>
+      <c r="H13">
+        <v>0.12419</v>
+      </c>
+      <c r="I13">
+        <v>0.3459125920093885</v>
+      </c>
+      <c r="J13">
+        <v>0.2606640542191307</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>31.85278333333333</v>
+      </c>
+      <c r="N13">
+        <v>95.55834999999999</v>
+      </c>
+      <c r="O13">
+        <v>0.1527323753111719</v>
+      </c>
+      <c r="P13">
+        <v>0.1671798370931021</v>
+      </c>
+      <c r="Q13">
+        <v>1.977898581083333</v>
+      </c>
+      <c r="R13">
+        <v>11.8673914865</v>
+      </c>
+      <c r="S13">
+        <v>0.05283205182763822</v>
+      </c>
+      <c r="T13">
+        <v>0.04357777412038181</v>
       </c>
     </row>
   </sheetData>
